--- a/SR_results.xlsx
+++ b/SR_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="x2" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="31">
   <si>
     <t>Bikes</t>
   </si>
@@ -96,12 +96,33 @@
   </si>
   <si>
     <t>PB-LAB402</t>
+  </si>
+  <si>
+    <t>LF Name</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Average EPFL</t>
+  </si>
+  <si>
+    <t>Average INRIA</t>
+  </si>
+  <si>
+    <t>Average STANFORD</t>
+  </si>
+  <si>
+    <t>Overall Performance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -135,13 +156,487 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,344 +917,565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="9" width="10.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>31.194099999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>32.674999999999997</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>32.091900000000003</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>32.758000000000003</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7">
         <v>31.292200000000001</v>
       </c>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>24.939800000000002</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>26.149000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <v>25.872399999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="11">
         <v>25.841699999999999</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11">
         <v>24.504300000000001</v>
       </c>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>30.5336</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>31.075399999999998</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="11">
+        <v>30.843699999999998</v>
+      </c>
+      <c r="F4" s="11">
         <v>31.7744</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11">
         <v>29.970099999999999</v>
       </c>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>34.278799999999997</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <v>35.476599999999998</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="11">
+        <v>35.143000000000001</v>
+      </c>
+      <c r="F5" s="11">
         <v>35.417099999999998</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11">
         <v>35.568600000000004</v>
       </c>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <v>30.478999999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <v>31.714600000000001</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="15">
+        <v>31.203199999999999</v>
+      </c>
+      <c r="F6" s="15">
         <v>31.492100000000001</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15">
         <v>29.4727</v>
       </c>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="19">
         <v>34.647100000000002</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="19">
         <v>35.436500000000002</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="19">
+        <v>34.7622</v>
+      </c>
+      <c r="F7" s="19">
         <v>36.128700000000002</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
         <v>32.767600000000002</v>
       </c>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <v>26.5976</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="11">
         <v>27.9146</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="11">
+        <v>27.514900000000001</v>
+      </c>
+      <c r="F8" s="11">
         <v>27.9956</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <v>26.176500000000001</v>
       </c>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <v>32.453499999999998</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="11">
         <v>32.988700000000001</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="11">
+        <v>33.706899999999997</v>
+      </c>
+      <c r="F9" s="11">
         <v>34.118099999999998</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
         <v>29.828199999999999</v>
       </c>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <v>37.74</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="11">
         <v>38.199199999999998</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="11">
+        <v>38.411299999999997</v>
+      </c>
+      <c r="F10" s="11">
         <v>39.171900000000001</v>
       </c>
-      <c r="H10">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <v>36.127299999999998</v>
       </c>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="15">
         <v>29.984200000000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="15">
         <v>30.7987</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="15">
+        <v>30.779599999999999</v>
+      </c>
+      <c r="F11" s="15">
         <v>30.9559</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15">
         <v>29.078600000000002</v>
       </c>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <v>33.308700000000002</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="11">
         <v>33.033700000000003</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="11">
+        <v>34.447899999999997</v>
+      </c>
+      <c r="F12" s="11">
         <v>34.580399999999997</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
         <v>32.973100000000002</v>
       </c>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <v>36.954700000000003</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="11">
         <v>38.374099999999999</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="11">
+        <v>38.315399999999997</v>
+      </c>
+      <c r="F13" s="11">
         <v>38.674799999999998</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
         <v>37.186900000000001</v>
       </c>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>29.654599999999999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="11">
         <v>27.976800000000001</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="11">
+        <v>30.229299999999999</v>
+      </c>
+      <c r="F14" s="11">
         <v>31.063600000000001</v>
       </c>
-      <c r="H14">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
         <v>29.028300000000002</v>
       </c>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <v>33.270299999999999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="11">
         <v>33.787599999999998</v>
       </c>
-      <c r="F15">
+      <c r="E15" s="11">
+        <v>34.336500000000001</v>
+      </c>
+      <c r="F15" s="11">
         <v>34.413800000000002</v>
       </c>
-      <c r="H15">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
         <v>32.423400000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="23">
         <v>30.681799999999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="23">
         <v>28.4069</v>
       </c>
-      <c r="F16">
+      <c r="E16" s="23">
+        <v>31.028300000000002</v>
+      </c>
+      <c r="F16" s="23">
         <v>31.956</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23">
         <v>29.394200000000001</v>
       </c>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="25">
+        <f>AVERAGE(C2:C6)</f>
+        <v>30.285059999999998</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" ref="D17:H17" si="0">AVERAGE(D2:D6)</f>
+        <v>31.418119999999998</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="0"/>
+        <v>31.030840000000001</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="0"/>
+        <v>31.456659999999999</v>
+      </c>
+      <c r="G17" s="25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="0"/>
+        <v>30.161579999999997</v>
+      </c>
+      <c r="I17" s="26" t="e">
+        <f>AVERAGE(I2:I6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="27">
+        <f>AVERAGE(C7:C11)</f>
+        <v>32.284479999999995</v>
+      </c>
+      <c r="D18" s="27">
+        <f t="shared" ref="D18:I18" si="1">AVERAGE(D7:D11)</f>
+        <v>33.067539999999994</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="1"/>
+        <v>33.034980000000004</v>
+      </c>
+      <c r="F18" s="27">
+        <f t="shared" si="1"/>
+        <v>33.674040000000005</v>
+      </c>
+      <c r="G18" s="27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="27">
+        <f t="shared" si="1"/>
+        <v>30.795639999999999</v>
+      </c>
+      <c r="I18" s="28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="29">
+        <f>AVERAGE(C12:C16)</f>
+        <v>32.77402</v>
+      </c>
+      <c r="D19" s="29">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D12:D16)</f>
+        <v>32.315820000000002</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="2"/>
+        <v>33.671479999999995</v>
+      </c>
+      <c r="F19" s="29">
+        <f t="shared" si="2"/>
+        <v>34.137720000000002</v>
+      </c>
+      <c r="G19" s="29" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="29">
+        <f t="shared" si="2"/>
+        <v>32.201180000000001</v>
+      </c>
+      <c r="I19" s="30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33">
+        <f>AVERAGE(C2:C16)</f>
+        <v>31.781186666666667</v>
+      </c>
+      <c r="D20" s="33">
+        <f t="shared" ref="D20:I20" si="3">AVERAGE(D2:D16)</f>
+        <v>32.267160000000004</v>
+      </c>
+      <c r="E20" s="33">
+        <f t="shared" si="3"/>
+        <v>32.579100000000004</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="3"/>
+        <v>33.089473333333338</v>
+      </c>
+      <c r="G20" s="33" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="33">
+        <f t="shared" si="3"/>
+        <v>31.052799999999998</v>
+      </c>
+      <c r="I20" s="34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -767,607 +1483,1127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="9" width="10.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>27.5502</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>29.270199999999999</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="7">
+        <v>28.783100000000001</v>
+      </c>
+      <c r="F2" s="7">
         <v>28.734000000000002</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7">
         <v>29.746300000000002</v>
       </c>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>22.429600000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>23.561199999999999</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="11">
+        <v>23.330200000000001</v>
+      </c>
+      <c r="F3" s="11">
         <v>23.070599999999999</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11">
         <v>23.4895</v>
       </c>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>27.37</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>28.332699999999999</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="11">
+        <v>28.114599999999999</v>
+      </c>
+      <c r="F4" s="11">
         <v>28.281400000000001</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11">
         <v>28.203900000000001</v>
       </c>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>31.169499999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <v>32.497999999999998</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="11">
+        <v>32.174399999999999</v>
+      </c>
+      <c r="F5" s="11">
         <v>32.165500000000002</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11">
         <v>33.150100000000002</v>
       </c>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <v>27.653300000000002</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <v>29.047999999999998</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="15">
+        <v>28.727399999999999</v>
+      </c>
+      <c r="F6" s="15">
         <v>28.452100000000002</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15">
         <v>28.753499999999999</v>
       </c>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="19">
         <v>31.018699999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="19">
         <v>32.335599999999999</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="19">
+        <v>32.032800000000002</v>
+      </c>
+      <c r="F7" s="19">
         <v>32.2363</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
         <v>32.632399999999997</v>
       </c>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <v>23.349900000000002</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="11">
         <v>24.512699999999999</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="11">
+        <v>24.2224</v>
+      </c>
+      <c r="F8" s="11">
         <v>24.190799999999999</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <v>24.523900000000001</v>
       </c>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <v>28.740100000000002</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="11">
         <v>29.424700000000001</v>
       </c>
-      <c r="H9">
+      <c r="E9" s="11">
+        <v>30.210999999999999</v>
+      </c>
+      <c r="F9" s="11">
+        <v>29.871600000000001</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
         <v>29.9543</v>
       </c>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <v>34.053800000000003</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="11">
         <v>35.209200000000003</v>
       </c>
-      <c r="H10">
+      <c r="E10" s="11">
+        <v>35.300400000000003</v>
+      </c>
+      <c r="F10" s="11">
+        <v>35.0032</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <v>34.772300000000001</v>
       </c>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="15">
         <v>27.302399999999999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="15">
         <v>28.2256</v>
       </c>
-      <c r="H11">
+      <c r="E11" s="15">
+        <v>28.225100000000001</v>
+      </c>
+      <c r="F11" s="15">
+        <v>28.034300000000002</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15">
         <v>28.566600000000001</v>
       </c>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <v>30.0411</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="11">
         <v>30.1707</v>
       </c>
-      <c r="H12">
+      <c r="E12" s="11">
+        <v>31.024699999999999</v>
+      </c>
+      <c r="F12" s="11">
+        <v>30.881900000000002</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
         <v>31.258299999999998</v>
       </c>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <v>32.905099999999997</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="11">
         <v>34.560699999999997</v>
       </c>
-      <c r="H13">
+      <c r="E13" s="11">
+        <v>34.313200000000002</v>
+      </c>
+      <c r="F13" s="11">
+        <v>34.143300000000004</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
         <v>35.188899999999997</v>
       </c>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>26.210699999999999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="11">
         <v>26</v>
       </c>
-      <c r="H14">
+      <c r="E14" s="11">
+        <v>27.049099999999999</v>
+      </c>
+      <c r="F14" s="11">
+        <v>27.1021</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
         <v>27.5777</v>
       </c>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <v>30.2639</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="11">
         <v>30.922999999999998</v>
       </c>
-      <c r="H15">
+      <c r="E15" s="11">
+        <v>31.182400000000001</v>
+      </c>
+      <c r="F15" s="11">
+        <v>30.985600000000002</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
         <v>31.239899999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="23">
         <v>27.284500000000001</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="23">
         <v>25.805800000000001</v>
       </c>
-      <c r="H16">
+      <c r="E16" s="23">
+        <v>28.154800000000002</v>
+      </c>
+      <c r="F16" s="23">
+        <v>28.239899999999999</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23">
         <v>28.643599999999999</v>
       </c>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="25">
+        <f>AVERAGE(C2:C6)</f>
+        <v>27.234519999999996</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" ref="D17:H17" si="0">AVERAGE(D2:D6)</f>
+        <v>28.542020000000001</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="0"/>
+        <v>28.225939999999998</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="0"/>
+        <v>28.140719999999998</v>
+      </c>
+      <c r="G17" s="25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="0"/>
+        <v>28.668659999999999</v>
+      </c>
+      <c r="I17" s="26" t="e">
+        <f>AVERAGE(I2:I6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="27">
+        <f>AVERAGE(C7:C11)</f>
+        <v>28.892980000000001</v>
+      </c>
+      <c r="D18" s="27">
+        <f t="shared" ref="D18:I18" si="1">AVERAGE(D7:D11)</f>
+        <v>29.941560000000003</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="1"/>
+        <v>29.998340000000002</v>
+      </c>
+      <c r="F18" s="27">
+        <f t="shared" si="1"/>
+        <v>29.867239999999999</v>
+      </c>
+      <c r="G18" s="27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="27">
+        <f t="shared" si="1"/>
+        <v>30.0899</v>
+      </c>
+      <c r="I18" s="28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="29">
+        <f>AVERAGE(C12:C16)</f>
+        <v>29.341059999999999</v>
+      </c>
+      <c r="D19" s="29">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D12:D16)</f>
+        <v>29.492039999999996</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="2"/>
+        <v>30.344839999999998</v>
+      </c>
+      <c r="F19" s="29">
+        <f t="shared" si="2"/>
+        <v>30.270560000000007</v>
+      </c>
+      <c r="G19" s="29" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="29">
+        <f t="shared" si="2"/>
+        <v>30.781680000000001</v>
+      </c>
+      <c r="I19" s="30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33">
+        <f>AVERAGE(C2:C16)</f>
+        <v>28.489519999999992</v>
+      </c>
+      <c r="D20" s="33">
+        <f t="shared" ref="D20:I20" si="3">AVERAGE(D2:D16)</f>
+        <v>29.325206666666663</v>
+      </c>
+      <c r="E20" s="33">
+        <f t="shared" si="3"/>
+        <v>29.523039999999998</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="3"/>
+        <v>29.426173333333331</v>
+      </c>
+      <c r="G20" s="33" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="33">
+        <f t="shared" si="3"/>
+        <v>29.846746666666661</v>
+      </c>
+      <c r="I20" s="34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="10.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>25.330100000000002</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>26.835799999999999</v>
       </c>
-      <c r="H2">
+      <c r="E2" s="7">
+        <v>26.4222</v>
+      </c>
+      <c r="F2" s="7">
+        <v>26.284199999999998</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7">
         <v>27.094000000000001</v>
       </c>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>20.997199999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>21.981200000000001</v>
       </c>
-      <c r="H3">
+      <c r="E3" s="11">
+        <v>21.742799999999999</v>
+      </c>
+      <c r="F3" s="11">
+        <v>21.502300000000002</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11">
         <v>21.746500000000001</v>
       </c>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>25.417400000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>26.347999999999999</v>
       </c>
-      <c r="H4">
+      <c r="E4" s="11">
+        <v>26.147099999999998</v>
+      </c>
+      <c r="F4" s="11">
+        <v>26.159800000000001</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11">
         <v>25.841699999999999</v>
       </c>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>29.151900000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <v>30.463200000000001</v>
       </c>
-      <c r="H5">
+      <c r="E5" s="11">
+        <v>30.139700000000001</v>
+      </c>
+      <c r="F5" s="11">
+        <v>30.104700000000001</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11">
         <v>30.910499999999999</v>
       </c>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <v>25.8825</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <v>27.1371</v>
       </c>
-      <c r="H6">
+      <c r="E6" s="15">
+        <v>26.894600000000001</v>
+      </c>
+      <c r="F6" s="15">
+        <v>26.617699999999999</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15">
         <v>26.828399999999998</v>
       </c>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="19">
         <v>28.721499999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="19">
         <v>29.9116</v>
       </c>
-      <c r="H7">
+      <c r="E7" s="19">
+        <v>29.849</v>
+      </c>
+      <c r="F7" s="19">
+        <v>29.852</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
         <v>30.303899999999999</v>
       </c>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <v>21.614999999999998</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="11">
         <v>22.4938</v>
       </c>
-      <c r="H8">
+      <c r="E8" s="11">
+        <v>22.294799999999999</v>
+      </c>
+      <c r="F8" s="11">
+        <v>22.248799999999999</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <v>22.517099999999999</v>
       </c>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <v>26.600300000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="11">
         <v>27.299800000000001</v>
       </c>
-      <c r="H9">
+      <c r="E9" s="11">
+        <v>27.817</v>
+      </c>
+      <c r="F9" s="11">
+        <v>27.53</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
         <v>27.201699999999999</v>
       </c>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <v>31.858000000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="11">
         <v>33.047499999999999</v>
       </c>
-      <c r="H10">
+      <c r="E10" s="11">
+        <v>33.052199999999999</v>
+      </c>
+      <c r="F10" s="11">
+        <v>32.571100000000001</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <v>32.107399999999998</v>
       </c>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="15">
         <v>25.707799999999999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="15">
         <v>26.386399999999998</v>
       </c>
-      <c r="H11">
+      <c r="E11" s="15">
+        <v>26.400300000000001</v>
+      </c>
+      <c r="F11" s="15">
+        <v>26.299099999999999</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15">
         <v>26.7606</v>
       </c>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <v>28.0322</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="11">
         <v>28.151700000000002</v>
       </c>
-      <c r="H12">
+      <c r="E12" s="11">
+        <v>28.9038</v>
+      </c>
+      <c r="F12" s="11">
+        <v>28.771599999999999</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
         <v>28.552</v>
       </c>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <v>30.466000000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="11">
         <v>31.890999999999998</v>
       </c>
-      <c r="H13">
+      <c r="E13" s="11">
+        <v>31.803699999999999</v>
+      </c>
+      <c r="F13" s="11">
+        <v>31.573599999999999</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
         <v>32.234499999999997</v>
       </c>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>24.286899999999999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="11">
         <v>24.353200000000001</v>
       </c>
-      <c r="H14">
+      <c r="E14" s="11">
+        <v>24.997399999999999</v>
+      </c>
+      <c r="F14" s="11">
+        <v>25.001300000000001</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
         <v>24.9255</v>
       </c>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <v>28.554300000000001</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="11">
         <v>29.142199999999999</v>
       </c>
-      <c r="H15">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11">
+        <v>29.154699999999998</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
         <v>29.0595</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="23">
         <v>25.2029</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="23">
         <v>24.033000000000001</v>
       </c>
-      <c r="H16">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23">
+        <v>26.044699999999999</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23">
         <v>25.815799999999999</v>
       </c>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="25">
+        <f>AVERAGE(C2:C6)</f>
+        <v>25.355820000000001</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" ref="D17:H17" si="0">AVERAGE(D2:D6)</f>
+        <v>26.553059999999999</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="0"/>
+        <v>26.269280000000002</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="0"/>
+        <v>26.13374</v>
+      </c>
+      <c r="G17" s="25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="0"/>
+        <v>26.484220000000001</v>
+      </c>
+      <c r="I17" s="26" t="e">
+        <f>AVERAGE(I2:I6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="27">
+        <f>AVERAGE(C7:C11)</f>
+        <v>26.90052</v>
+      </c>
+      <c r="D18" s="27">
+        <f t="shared" ref="D18:I18" si="1">AVERAGE(D7:D11)</f>
+        <v>27.827820000000003</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="1"/>
+        <v>27.882659999999998</v>
+      </c>
+      <c r="F18" s="27">
+        <f t="shared" si="1"/>
+        <v>27.700200000000002</v>
+      </c>
+      <c r="G18" s="27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="27">
+        <f t="shared" si="1"/>
+        <v>27.77814</v>
+      </c>
+      <c r="I18" s="28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="29">
+        <f>AVERAGE(C12:C16)</f>
+        <v>27.308460000000004</v>
+      </c>
+      <c r="D19" s="29">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D12:D16)</f>
+        <v>27.514220000000002</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="2"/>
+        <v>28.568299999999997</v>
+      </c>
+      <c r="F19" s="29">
+        <f t="shared" si="2"/>
+        <v>28.109179999999999</v>
+      </c>
+      <c r="G19" s="29" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="29">
+        <f t="shared" si="2"/>
+        <v>28.117460000000001</v>
+      </c>
+      <c r="I19" s="30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33">
+        <f>AVERAGE(C2:C16)</f>
+        <v>26.521599999999999</v>
+      </c>
+      <c r="D20" s="33">
+        <f t="shared" ref="D20:I20" si="3">AVERAGE(D2:D16)</f>
+        <v>27.298366666666666</v>
+      </c>
+      <c r="E20" s="33">
+        <f t="shared" si="3"/>
+        <v>27.420353846153848</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="3"/>
+        <v>27.314373333333329</v>
+      </c>
+      <c r="G20" s="33" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="33">
+        <f t="shared" si="3"/>
+        <v>27.459940000000003</v>
+      </c>
+      <c r="I20" s="34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SR_results.xlsx
+++ b/SR_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="x2" sheetId="3" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -627,6 +627,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -982,7 +985,9 @@
       <c r="H2" s="7">
         <v>31.292200000000001</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="8">
+        <v>31.9481</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
@@ -1007,7 +1012,9 @@
       <c r="H3" s="11">
         <v>24.504300000000001</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="12">
+        <v>26.151499999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
@@ -1032,7 +1039,9 @@
       <c r="H4" s="11">
         <v>29.970099999999999</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="12">
+        <v>28.038900000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -1057,7 +1066,9 @@
       <c r="H5" s="11">
         <v>35.568600000000004</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="12">
+        <v>36.229599999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
@@ -1082,7 +1093,9 @@
       <c r="H6" s="15">
         <v>29.4727</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="16">
+        <v>31.1417</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
@@ -1107,7 +1120,9 @@
       <c r="H7" s="19">
         <v>32.767600000000002</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="20">
+        <v>33.225299999999997</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
@@ -1132,7 +1147,9 @@
       <c r="H8" s="11">
         <v>26.176500000000001</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="12">
+        <v>27.573</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
@@ -1335,10 +1352,10 @@
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="25">
         <f>AVERAGE(C2:C6)</f>
         <v>30.285059999999998</v>
@@ -1363,16 +1380,16 @@
         <f t="shared" si="0"/>
         <v>30.161579999999997</v>
       </c>
-      <c r="I17" s="26" t="e">
+      <c r="I17" s="26">
         <f>AVERAGE(I2:I6)</f>
-        <v>#DIV/0!</v>
+        <v>30.701959999999996</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="27">
         <f>AVERAGE(C7:C11)</f>
         <v>32.284479999999995</v>
@@ -1397,16 +1414,16 @@
         <f t="shared" si="1"/>
         <v>30.795639999999999</v>
       </c>
-      <c r="I18" s="28" t="e">
+      <c r="I18" s="28">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>30.399149999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="29">
         <f>AVERAGE(C12:C16)</f>
         <v>32.77402</v>
@@ -1465,9 +1482,9 @@
         <f t="shared" si="3"/>
         <v>31.052799999999998</v>
       </c>
-      <c r="I20" s="34" t="e">
+      <c r="I20" s="34">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>30.615442857142856</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1503,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I20"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1901,10 +1918,10 @@
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="25">
         <f>AVERAGE(C2:C6)</f>
         <v>27.234519999999996</v>
@@ -1935,10 +1952,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="27">
         <f>AVERAGE(C7:C11)</f>
         <v>28.892980000000001</v>
@@ -1969,10 +1986,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="29">
         <f>AVERAGE(C12:C16)</f>
         <v>29.341059999999999</v>
@@ -2050,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2428,7 +2445,9 @@
       <c r="D15" s="11">
         <v>29.142199999999999</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="35">
+        <v>29.345099999999999</v>
+      </c>
       <c r="F15" s="11">
         <v>29.154699999999998</v>
       </c>
@@ -2451,7 +2470,9 @@
       <c r="D16" s="23">
         <v>24.033000000000001</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="35">
+        <v>26.133199999999999</v>
+      </c>
       <c r="F16" s="23">
         <v>26.044699999999999</v>
       </c>
@@ -2462,10 +2483,10 @@
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="25">
         <f>AVERAGE(C2:C6)</f>
         <v>25.355820000000001</v>
@@ -2496,10 +2517,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="27">
         <f>AVERAGE(C7:C11)</f>
         <v>26.90052</v>
@@ -2530,10 +2551,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="29">
         <f>AVERAGE(C12:C16)</f>
         <v>27.308460000000004</v>
@@ -2544,7 +2565,7 @@
       </c>
       <c r="E19" s="29">
         <f t="shared" si="2"/>
-        <v>28.568299999999997</v>
+        <v>28.236640000000001</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" si="2"/>
@@ -2578,7 +2599,7 @@
       </c>
       <c r="E20" s="33">
         <f t="shared" si="3"/>
-        <v>27.420353846153848</v>
+        <v>27.462859999999999</v>
       </c>
       <c r="F20" s="33">
         <f t="shared" si="3"/>

--- a/SR_results.xlsx
+++ b/SR_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="x2" sheetId="3" r:id="rId1"/>
@@ -148,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -228,19 +228,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -263,17 +250,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -291,19 +267,6 @@
         <color auto="1"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -339,19 +302,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -369,19 +319,6 @@
         <color auto="1"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -529,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -552,17 +489,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,70 +516,52 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -985,506 +907,522 @@
       <c r="H2" s="7">
         <v>31.292200000000001</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="30">
         <v>31.9481</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>24.939800000000002</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>26.149000000000001</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>25.872399999999999</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>25.841699999999999</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10">
         <v>24.504300000000001</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="30">
         <v>26.151499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>30.5336</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>31.075399999999998</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>30.843699999999998</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>31.7744</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10">
         <v>29.970099999999999</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="30">
         <v>28.038900000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>34.278799999999997</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>35.476599999999998</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>35.143000000000001</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>35.417099999999998</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
         <v>35.568600000000004</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="30">
         <v>36.229599999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>30.478999999999999</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>31.714600000000001</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>31.203199999999999</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>31.492100000000001</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
         <v>29.4727</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="30">
         <v>31.1417</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="16">
         <v>34.647100000000002</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="16">
         <v>35.436500000000002</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="16">
         <v>34.7622</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="16">
         <v>36.128700000000002</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16">
         <v>32.767600000000002</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="30">
         <v>33.225299999999997</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>26.5976</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>27.9146</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>27.514900000000001</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>27.9956</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>26.176500000000001</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="30">
         <v>27.573</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>32.453499999999998</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>32.988700000000001</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>33.706899999999997</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>34.118099999999998</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
         <v>29.828199999999999</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="30">
+        <v>30.1357</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>37.74</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>38.199199999999998</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>38.411299999999997</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>39.171900000000001</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
         <v>36.127299999999998</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="30">
+        <v>35.849800000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>29.984200000000001</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>30.7987</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>30.779599999999999</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>30.9559</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
         <v>29.078600000000002</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="30">
+        <v>31.2453</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>33.308700000000002</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>33.033700000000003</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>34.447899999999997</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>34.580399999999997</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>32.973100000000002</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="30">
+        <v>31.014900000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>36.954700000000003</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>38.374099999999999</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>38.315399999999997</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>38.674799999999998</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
         <v>37.186900000000001</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="30">
+        <v>36.029200000000003</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>29.654599999999999</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>27.976800000000001</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>30.229299999999999</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>31.063600000000001</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
         <v>29.028300000000002</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="30">
+        <v>25.9527</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>33.270299999999999</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>33.787599999999998</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>34.336500000000001</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>34.413800000000002</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>32.423400000000001</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="30">
+        <v>33.291699999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="19">
         <v>30.681799999999999</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="19">
         <v>28.4069</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="19">
         <v>31.028300000000002</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="19">
         <v>31.956</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19">
         <v>29.394200000000001</v>
       </c>
-      <c r="I16" s="24"/>
+      <c r="I16" s="30">
+        <v>27.681699999999999</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="25">
+      <c r="B17" s="32"/>
+      <c r="C17" s="20">
         <f>AVERAGE(C2:C6)</f>
         <v>30.285059999999998</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="20">
         <f t="shared" ref="D17:H17" si="0">AVERAGE(D2:D6)</f>
         <v>31.418119999999998</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="20">
         <f t="shared" si="0"/>
         <v>31.030840000000001</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="20">
         <f t="shared" si="0"/>
         <v>31.456659999999999</v>
       </c>
-      <c r="G17" s="25" t="e">
+      <c r="G17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="20">
         <f t="shared" si="0"/>
         <v>30.161579999999997</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="21">
         <f>AVERAGE(I2:I6)</f>
         <v>30.701959999999996</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="27">
+      <c r="B18" s="34"/>
+      <c r="C18" s="22">
         <f>AVERAGE(C7:C11)</f>
         <v>32.284479999999995</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="22">
         <f t="shared" ref="D18:I18" si="1">AVERAGE(D7:D11)</f>
         <v>33.067539999999994</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="22">
         <f t="shared" si="1"/>
         <v>33.034980000000004</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="22">
         <f t="shared" si="1"/>
         <v>33.674040000000005</v>
       </c>
-      <c r="G18" s="27" t="e">
+      <c r="G18" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="22">
         <f t="shared" si="1"/>
         <v>30.795639999999999</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="23">
         <f t="shared" si="1"/>
-        <v>30.399149999999999</v>
+        <v>31.605820000000001</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="29">
+      <c r="B19" s="34"/>
+      <c r="C19" s="24">
         <f>AVERAGE(C12:C16)</f>
         <v>32.77402</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="24">
         <f t="shared" ref="D19:I19" si="2">AVERAGE(D12:D16)</f>
         <v>32.315820000000002</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="24">
         <f t="shared" si="2"/>
         <v>33.671479999999995</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="24">
         <f t="shared" si="2"/>
         <v>34.137720000000002</v>
       </c>
-      <c r="G19" s="29" t="e">
+      <c r="G19" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="24">
         <f t="shared" si="2"/>
         <v>32.201180000000001</v>
       </c>
-      <c r="I19" s="30" t="e">
+      <c r="I19" s="25">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>30.794040000000003</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33">
+      <c r="B20" s="27"/>
+      <c r="C20" s="28">
         <f>AVERAGE(C2:C16)</f>
         <v>31.781186666666667</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="28">
         <f t="shared" ref="D20:I20" si="3">AVERAGE(D2:D16)</f>
         <v>32.267160000000004</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="28">
         <f t="shared" si="3"/>
         <v>32.579100000000004</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="28">
         <f t="shared" si="3"/>
         <v>33.089473333333338</v>
       </c>
-      <c r="G20" s="33" t="e">
+      <c r="G20" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="28">
         <f t="shared" si="3"/>
         <v>31.052799999999998</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="29">
         <f t="shared" si="3"/>
-        <v>30.615442857142856</v>
+        <v>31.033939999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1503,7 +1441,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1565,492 +1503,522 @@
       <c r="H2" s="7">
         <v>29.746300000000002</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="30">
+        <v>29.235299999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>22.429600000000001</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>23.561199999999999</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>23.330200000000001</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>23.070599999999999</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10">
         <v>23.4895</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="30">
+        <v>23.51</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>27.37</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>28.332699999999999</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>28.114599999999999</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>28.281400000000001</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10">
         <v>28.203900000000001</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="30">
+        <v>25.705500000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>31.169499999999999</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>32.497999999999998</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>32.174399999999999</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>32.165500000000002</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
         <v>33.150100000000002</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="30">
+        <v>33.434399999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>27.653300000000002</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>29.047999999999998</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>28.727399999999999</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>28.452100000000002</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
         <v>28.753499999999999</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="30">
+        <v>28.875900000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="16">
         <v>31.018699999999999</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="16">
         <v>32.335599999999999</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="16">
         <v>32.032800000000002</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="16">
         <v>32.2363</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16">
         <v>32.632399999999997</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="30">
+        <v>30.604099999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>23.349900000000002</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>24.512699999999999</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>24.2224</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>24.190799999999999</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>24.523900000000001</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="30">
+        <v>24.1906</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>28.740100000000002</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>29.424700000000001</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>30.210999999999999</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>29.871600000000001</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
         <v>29.9543</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="30">
+        <v>27.668099999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>34.053800000000003</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>35.209200000000003</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>35.300400000000003</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>35.0032</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
         <v>34.772300000000001</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="30">
+        <v>34.085700000000003</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>27.302399999999999</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>28.2256</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>28.225100000000001</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>28.034300000000002</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
         <v>28.566600000000001</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="30">
+        <v>28.770499999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>30.0411</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>30.1707</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>31.024699999999999</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>30.881900000000002</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>31.258299999999998</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="30">
+        <v>28.6829</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>32.905099999999997</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>34.560699999999997</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>34.313200000000002</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>34.143300000000004</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
         <v>35.188899999999997</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="30">
+        <v>33.572099999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>26.210699999999999</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>26</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>27.049099999999999</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>27.1021</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
         <v>27.5777</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="30">
+        <v>23.8017</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>30.2639</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>30.922999999999998</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>31.182400000000001</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>30.985600000000002</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>31.239899999999999</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="30">
+        <v>31.001300000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="19">
         <v>27.284500000000001</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="19">
         <v>25.805800000000001</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="19">
         <v>28.154800000000002</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="19">
         <v>28.239899999999999</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19">
         <v>28.643599999999999</v>
       </c>
-      <c r="I16" s="24"/>
+      <c r="I16" s="30">
+        <v>25.8154</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="25">
+      <c r="B17" s="32"/>
+      <c r="C17" s="20">
         <f>AVERAGE(C2:C6)</f>
         <v>27.234519999999996</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="20">
         <f t="shared" ref="D17:H17" si="0">AVERAGE(D2:D6)</f>
         <v>28.542020000000001</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="20">
         <f t="shared" si="0"/>
         <v>28.225939999999998</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="20">
         <f t="shared" si="0"/>
         <v>28.140719999999998</v>
       </c>
-      <c r="G17" s="25" t="e">
+      <c r="G17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="20">
         <f t="shared" si="0"/>
         <v>28.668659999999999</v>
       </c>
-      <c r="I17" s="26" t="e">
+      <c r="I17" s="21">
         <f>AVERAGE(I2:I6)</f>
-        <v>#DIV/0!</v>
+        <v>28.15222</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="27">
+      <c r="B18" s="34"/>
+      <c r="C18" s="22">
         <f>AVERAGE(C7:C11)</f>
         <v>28.892980000000001</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="22">
         <f t="shared" ref="D18:I18" si="1">AVERAGE(D7:D11)</f>
         <v>29.941560000000003</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="22">
         <f t="shared" si="1"/>
         <v>29.998340000000002</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="22">
         <f t="shared" si="1"/>
         <v>29.867239999999999</v>
       </c>
-      <c r="G18" s="27" t="e">
+      <c r="G18" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="22">
         <f t="shared" si="1"/>
         <v>30.0899</v>
       </c>
-      <c r="I18" s="28" t="e">
+      <c r="I18" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>29.063800000000004</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="29">
+      <c r="B19" s="34"/>
+      <c r="C19" s="24">
         <f>AVERAGE(C12:C16)</f>
         <v>29.341059999999999</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="24">
         <f t="shared" ref="D19:I19" si="2">AVERAGE(D12:D16)</f>
         <v>29.492039999999996</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="24">
         <f t="shared" si="2"/>
         <v>30.344839999999998</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="24">
         <f t="shared" si="2"/>
         <v>30.270560000000007</v>
       </c>
-      <c r="G19" s="29" t="e">
+      <c r="G19" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="24">
         <f t="shared" si="2"/>
         <v>30.781680000000001</v>
       </c>
-      <c r="I19" s="30" t="e">
+      <c r="I19" s="25">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>28.574680000000001</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33">
+      <c r="B20" s="27"/>
+      <c r="C20" s="28">
         <f>AVERAGE(C2:C16)</f>
         <v>28.489519999999992</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="28">
         <f t="shared" ref="D20:I20" si="3">AVERAGE(D2:D16)</f>
         <v>29.325206666666663</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="28">
         <f t="shared" si="3"/>
         <v>29.523039999999998</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="28">
         <f t="shared" si="3"/>
         <v>29.426173333333331</v>
       </c>
-      <c r="G20" s="33" t="e">
+      <c r="G20" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="28">
         <f t="shared" si="3"/>
         <v>29.846746666666661</v>
       </c>
-      <c r="I20" s="34" t="e">
+      <c r="I20" s="29">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>28.596900000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2067,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2130,492 +2098,522 @@
       <c r="H2" s="7">
         <v>27.094000000000001</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="30">
+        <v>27.486699999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>20.997199999999999</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>21.981200000000001</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>21.742799999999999</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>21.502300000000002</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10">
         <v>21.746500000000001</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="30">
+        <v>21.813800000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>25.417400000000001</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>26.347999999999999</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>26.147099999999998</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>26.159800000000001</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10">
         <v>25.841699999999999</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="30">
+        <v>24.170999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>29.151900000000001</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>30.463200000000001</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>30.139700000000001</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>30.104700000000001</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
         <v>30.910499999999999</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="30">
+        <v>31.537299999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>25.8825</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>27.1371</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>26.894600000000001</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>26.617699999999999</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
         <v>26.828399999999998</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="30">
+        <v>27.252199999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="16">
         <v>28.721499999999999</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="16">
         <v>29.9116</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="16">
         <v>29.849</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="16">
         <v>29.852</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16">
         <v>30.303899999999999</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="30">
+        <v>29.072700000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>21.614999999999998</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>22.4938</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>22.294799999999999</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>22.248799999999999</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>22.517099999999999</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="30">
+        <v>22.270800000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>26.600300000000001</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>27.299800000000001</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>27.817</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>27.53</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
         <v>27.201699999999999</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="30">
+        <v>26.7302</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>31.858000000000001</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>33.047499999999999</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>33.052199999999999</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>32.571100000000001</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
         <v>32.107399999999998</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="30">
+        <v>32.674399999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>25.707799999999999</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>26.386399999999998</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>26.400300000000001</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>26.299099999999999</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
         <v>26.7606</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="30">
+        <v>27.147200000000002</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>28.0322</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>28.151700000000002</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>28.9038</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>28.771599999999999</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>28.552</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="30">
+        <v>27.321400000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>30.466000000000001</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>31.890999999999998</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>31.803699999999999</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>31.573599999999999</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
         <v>32.234499999999997</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="30">
+        <v>32.251899999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>24.286899999999999</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>24.353200000000001</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>24.997399999999999</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>25.001300000000001</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
         <v>24.9255</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="30">
+        <v>22.8766</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>28.554300000000001</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>29.142199999999999</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="30">
         <v>29.345099999999999</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>29.154699999999998</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>29.0595</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="30">
+        <v>29.412700000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="19">
         <v>25.2029</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="19">
         <v>24.033000000000001</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="30">
         <v>26.133199999999999</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="19">
         <v>26.044699999999999</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19">
         <v>25.815799999999999</v>
       </c>
-      <c r="I16" s="24"/>
+      <c r="I16" s="30">
+        <v>24.798100000000002</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="25">
+      <c r="B17" s="32"/>
+      <c r="C17" s="20">
         <f>AVERAGE(C2:C6)</f>
         <v>25.355820000000001</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="20">
         <f t="shared" ref="D17:H17" si="0">AVERAGE(D2:D6)</f>
         <v>26.553059999999999</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="20">
         <f t="shared" si="0"/>
         <v>26.269280000000002</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="20">
         <f t="shared" si="0"/>
         <v>26.13374</v>
       </c>
-      <c r="G17" s="25" t="e">
+      <c r="G17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="20">
         <f t="shared" si="0"/>
         <v>26.484220000000001</v>
       </c>
-      <c r="I17" s="26" t="e">
+      <c r="I17" s="21">
         <f>AVERAGE(I2:I6)</f>
-        <v>#DIV/0!</v>
+        <v>26.452199999999998</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="27">
+      <c r="B18" s="34"/>
+      <c r="C18" s="22">
         <f>AVERAGE(C7:C11)</f>
         <v>26.90052</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="22">
         <f t="shared" ref="D18:I18" si="1">AVERAGE(D7:D11)</f>
         <v>27.827820000000003</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="22">
         <f t="shared" si="1"/>
         <v>27.882659999999998</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="22">
         <f t="shared" si="1"/>
         <v>27.700200000000002</v>
       </c>
-      <c r="G18" s="27" t="e">
+      <c r="G18" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="22">
         <f t="shared" si="1"/>
         <v>27.77814</v>
       </c>
-      <c r="I18" s="28" t="e">
+      <c r="I18" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>27.579059999999998</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="29">
+      <c r="B19" s="34"/>
+      <c r="C19" s="24">
         <f>AVERAGE(C12:C16)</f>
         <v>27.308460000000004</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="24">
         <f t="shared" ref="D19:I19" si="2">AVERAGE(D12:D16)</f>
         <v>27.514220000000002</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="24">
         <f t="shared" si="2"/>
         <v>28.236640000000001</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="24">
         <f t="shared" si="2"/>
         <v>28.109179999999999</v>
       </c>
-      <c r="G19" s="29" t="e">
+      <c r="G19" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="24">
         <f t="shared" si="2"/>
         <v>28.117460000000001</v>
       </c>
-      <c r="I19" s="30" t="e">
+      <c r="I19" s="25">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>27.332139999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33">
+      <c r="B20" s="27"/>
+      <c r="C20" s="28">
         <f>AVERAGE(C2:C16)</f>
         <v>26.521599999999999</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="28">
         <f t="shared" ref="D20:I20" si="3">AVERAGE(D2:D16)</f>
         <v>27.298366666666666</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="28">
         <f t="shared" si="3"/>
         <v>27.462859999999999</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="28">
         <f t="shared" si="3"/>
         <v>27.314373333333329</v>
       </c>
-      <c r="G20" s="33" t="e">
+      <c r="G20" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="28">
         <f t="shared" si="3"/>
         <v>27.459940000000003</v>
       </c>
-      <c r="I20" s="34" t="e">
+      <c r="I20" s="29">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>27.121133333333326</v>
       </c>
     </row>
   </sheetData>
